--- a/biology/Botanique/Colli_Altotiberini_bianco/Colli_Altotiberini_bianco.xlsx
+++ b/biology/Botanique/Colli_Altotiberini_bianco/Colli_Altotiberini_bianco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli Altotiberini bianco est un vin blanc italien de la région Ombrie doté d'une appellation DOC depuis le 22 janvier 1980. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les  vignobles autorisés se situent en province de Pérouse dans les communes de San Giustino, Citerna, Città di Castello, Monte Santa Maria Tiberina, Montone, Umbertide, Gubbio et Pérouse dans la Haute vallée du Tibre.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins intense.
 odeur : caractéristique, agréable
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,6 +622,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +649,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres : 
 Perugia  (1990/91)  1937,11
